--- a/Inputs/Orange/addons.xlsx
+++ b/Inputs/Orange/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,13 +16,14 @@
     <sheet name="Dental" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Maternity (Consultations, Scans" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Optical Benefits" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Maternity-addon" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Accommodation Type'!$A$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$B$1:$G$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$F$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="153">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -102,19 +103,16 @@
     <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">Suite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi Private </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shared </t>
+    <t xml:space="preserve">Suite Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared Room</t>
   </si>
   <si>
     <t xml:space="preserve">Nil</t>
@@ -473,6 +471,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">5%</t>
   </si>
   <si>
@@ -508,6 +527,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">10%</t>
   </si>
   <si>
@@ -543,6 +565,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">15%</t>
   </si>
   <si>
@@ -578,6 +603,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">20%</t>
   </si>
   <si>
@@ -613,6 +641,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">25%</t>
   </si>
   <si>
@@ -648,6 +679,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">30%</t>
   </si>
   <si>
@@ -683,6 +717,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">30% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
   </si>
   <si>
@@ -875,6 +912,21 @@
     <t xml:space="preserve">currency</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional benefit Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Plus- Elite/Regional Plus- Diamond/Regional Plus- Gold/Regional Plus- Silver/Regional Plus- Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
     <t xml:space="preserve">fixed</t>
   </si>
   <si>
@@ -884,136 +936,34 @@
     <t xml:space="preserve">Covered up to AED 1,000 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">sheetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity-addon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditional-fixed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maternity Addon</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 7,500 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 15,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 20,00 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 25,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 30,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 40,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 50,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m29</t>
+    <t xml:space="preserve">OP- Covered in full IP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 7,500 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 15,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 20,00 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 25,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 30,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 40,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 50,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Optical Addon</t>
@@ -1026,24 +976,6 @@
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 750 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minAge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxAge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +988,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1091,6 +1023,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1144,7 +1082,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1181,6 +1119,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,6 +1140,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1209,6 +1176,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1220,7 +1195,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1874,7 +1849,7 @@
   <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1891,13 +1866,13 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
@@ -1926,7 +1901,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2103,10 +2078,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2159,10 +2134,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2243,10 +2218,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2327,10 +2302,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2351,13 +2326,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2372,7 +2349,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2408,10 +2385,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2433,10 +2410,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2458,10 +2435,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2483,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2508,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2531,7 +2508,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2550,7 +2527,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2586,10 +2563,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2611,10 +2588,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2636,10 +2613,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2661,10 +2638,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2686,10 +2663,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2711,10 +2688,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2736,10 +2713,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2759,7 +2736,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2775,12 +2752,13 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
   </cols>
   <sheetData>
@@ -2800,13 +2778,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>47</v>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2815,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2828,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -2856,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -2871,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2884,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -2899,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2912,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -2927,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2940,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -2955,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2968,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -2983,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2996,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -3011,10 +2989,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3024,7 +3002,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -3039,10 +3017,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3052,7 +3030,7 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -3067,10 +3045,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3080,7 +3058,7 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -3095,10 +3073,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3108,7 +3086,7 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -3123,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3136,7 +3114,7 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -3151,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3164,7 +3142,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -3179,10 +3157,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3192,7 +3170,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -3207,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3220,7 +3198,7 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -3235,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3248,7 +3226,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -3266,7 +3244,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3276,7 +3254,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -3294,7 +3272,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3304,7 +3282,7 @@
         <v>-2.25</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -3322,7 +3300,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3332,7 +3310,7 @@
         <v>-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -3350,7 +3328,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3360,7 +3338,7 @@
         <v>-1.75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -3378,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3388,7 +3366,7 @@
         <v>-1.25</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -3406,7 +3384,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3416,7 +3394,7 @@
         <v>-1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -3434,7 +3412,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3444,7 +3422,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -3462,7 +3440,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3472,7 +3450,7 @@
         <v>-0.5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -3490,7 +3468,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3500,7 +3478,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -3515,10 +3493,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3528,7 +3506,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -3543,10 +3521,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3556,7 +3534,7 @@
         <v>-2.25</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -3571,10 +3549,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3584,7 +3562,7 @@
         <v>-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -3599,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3612,7 +3590,7 @@
         <v>-1.75</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -3627,10 +3605,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3640,7 +3618,7 @@
         <v>-1.25</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -3655,10 +3633,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3668,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -3683,10 +3661,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3696,7 +3674,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -3711,10 +3689,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3724,7 +3702,7 @@
         <v>-0.5</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -3739,10 +3717,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3752,7 +3730,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -3767,10 +3745,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3780,7 +3758,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
@@ -3795,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3808,7 +3786,7 @@
         <v>-2.25</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
@@ -3823,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3836,7 +3814,7 @@
         <v>-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>11</v>
@@ -3851,10 +3829,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3864,7 +3842,7 @@
         <v>-1.75</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
@@ -3879,10 +3857,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3892,7 +3870,7 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -3907,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3920,7 +3898,7 @@
         <v>-1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -3935,10 +3913,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3948,7 +3926,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
@@ -3963,10 +3941,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3976,7 +3954,7 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
@@ -3991,10 +3969,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4004,7 +3982,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
@@ -4019,10 +3997,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4032,7 +4010,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
@@ -4047,10 +4025,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4060,7 +4038,7 @@
         <v>-2.25</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -4075,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4088,7 +4066,7 @@
         <v>-2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>11</v>
@@ -4103,10 +4081,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4116,7 +4094,7 @@
         <v>-1.75</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>11</v>
@@ -4131,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4144,7 +4122,7 @@
         <v>-1.25</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
@@ -4159,10 +4137,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4172,7 +4150,7 @@
         <v>-1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>11</v>
@@ -4187,10 +4165,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4200,7 +4178,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
@@ -4215,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4228,7 +4206,7 @@
         <v>-0.5</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>11</v>
@@ -4243,10 +4221,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4256,7 +4234,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>
@@ -4271,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4284,7 +4262,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>11</v>
@@ -4299,10 +4277,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4312,7 +4290,7 @@
         <v>-2.25</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>11</v>
@@ -4327,10 +4305,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4340,7 +4318,7 @@
         <v>-2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>11</v>
@@ -4355,10 +4333,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4368,7 +4346,7 @@
         <v>-1.75</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>11</v>
@@ -4383,10 +4361,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4396,7 +4374,7 @@
         <v>-1.25</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>11</v>
@@ -4411,10 +4389,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4424,7 +4402,7 @@
         <v>-1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>11</v>
@@ -4439,10 +4417,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4452,7 +4430,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>11</v>
@@ -4467,10 +4445,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4480,7 +4458,7 @@
         <v>-0.5</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>11</v>
@@ -4495,10 +4473,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4508,7 +4486,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>11</v>
@@ -4523,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4536,7 +4514,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>11</v>
@@ -4551,10 +4529,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4564,7 +4542,7 @@
         <v>-2.25</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>11</v>
@@ -4579,10 +4557,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4592,7 +4570,7 @@
         <v>-2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>11</v>
@@ -4607,10 +4585,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4620,7 +4598,7 @@
         <v>-1.75</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
@@ -4635,10 +4613,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4648,7 +4626,7 @@
         <v>-1.25</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>11</v>
@@ -4663,10 +4641,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4676,7 +4654,7 @@
         <v>-1</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>11</v>
@@ -4691,10 +4669,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4704,7 +4682,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>11</v>
@@ -4719,10 +4697,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4732,7 +4710,7 @@
         <v>-0.5</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>11</v>
@@ -4747,10 +4725,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4760,7 +4738,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>11</v>
@@ -4771,13 +4749,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4786,18 +4766,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
   </cols>
   <sheetData>
@@ -4824,37 +4804,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>605.439306358382</v>
-      </c>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4863,13 +4840,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4879,13 +4856,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>665.317919075145</v>
+        <v>605.439306358382</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4894,13 +4871,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4910,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>844.953757225434</v>
+        <v>665.317919075145</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4925,13 +4902,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4941,13 +4918,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>904.832369942197</v>
+        <v>844.953757225434</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4956,13 +4933,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4972,13 +4949,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>971.364161849711</v>
+        <v>904.832369942197</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4987,13 +4964,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5003,13 +4980,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1151</v>
+        <v>971.364161849711</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5018,13 +4995,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5034,13 +5011,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1270.75722543353</v>
+        <v>1151</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5049,13 +5026,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5065,13 +5042,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1816.31791907514</v>
+        <v>1270.75722543353</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5080,29 +5057,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>401.397260273973</v>
+        <v>1816.31791907514</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5111,13 +5088,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5127,13 +5104,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>441.095890410959</v>
+        <v>401.397260273973</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5142,13 +5119,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5158,13 +5135,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>560.191780821918</v>
+        <v>441.095890410959</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5173,13 +5150,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5189,13 +5166,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>599.890410958904</v>
+        <v>560.191780821918</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5204,13 +5181,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5220,13 +5197,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>644</v>
+        <v>599.890410958904</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5235,13 +5212,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5251,13 +5228,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>763.095890410959</v>
+        <v>644</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5266,13 +5243,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5282,13 +5259,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>842.493150684932</v>
+        <v>763.095890410959</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5297,29 +5274,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>214.96062992126</v>
+        <v>842.493150684932</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5328,13 +5305,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5344,13 +5321,13 @@
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>236.220472440945</v>
+        <v>214.96062992126</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5359,13 +5336,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5375,13 +5352,13 @@
         <v>19</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>300</v>
+        <v>236.220472440945</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5390,13 +5367,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5406,13 +5383,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>321.259842519685</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5421,13 +5398,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5437,13 +5414,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>344.881889763779</v>
+        <v>321.259842519685</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5452,13 +5429,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5468,13 +5445,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>408.661417322835</v>
+        <v>344.881889763779</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5483,29 +5460,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>156</v>
+        <v>408.661417322835</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5514,13 +5491,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5530,13 +5507,13 @@
         <v>20</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>171.428571428571</v>
+        <v>156</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5545,13 +5522,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5561,13 +5538,13 @@
         <v>20</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>217.714285714286</v>
+        <v>171.428571428571</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5576,13 +5553,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5592,13 +5569,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>233.142857142857</v>
+        <v>217.714285714286</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5607,13 +5584,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5623,13 +5600,13 @@
         <v>20</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>250.285714285714</v>
+        <v>233.142857142857</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5638,29 +5615,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>156</v>
+        <v>250.285714285714</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5669,13 +5646,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5685,13 +5662,13 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>171.428571428571</v>
+        <v>156</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5700,13 +5677,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5716,24 +5693,55 @@
         <v>21</v>
       </c>
       <c r="F30" s="0" t="n">
+        <v>171.428571428571</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>217.714285714286</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5747,1137 +5755,956 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>3824</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>136</v>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>3673.05263157895</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>138</v>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>5031.57894736842</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>140</v>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>5434.1052631579</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>142</v>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>5736</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>144</v>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>6390.1052631579</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>146</v>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>6490.73684210526</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>148</v>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>6692</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>150</v>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="F10" s="1" t="n">
         <v>3544.55555555556</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>151</v>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>3404.63888888889</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>152</v>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>4663.88888888889</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>153</v>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>5037</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>154</v>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>5316.83333333333</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>155</v>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>5923.13888888889</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>156</v>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>6016.41666666667</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>157</v>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>6202.97222222222</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>158</v>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="F18" s="1" t="n">
         <v>2520.92</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>159</v>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>2421.41</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>160</v>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>3317</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>161</v>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>3582.36</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>162</v>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>3781.38</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>163</v>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>4212.59</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>164</v>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="F24" s="1" t="n">
         <v>2304</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>165</v>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>2213.05263157895</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>166</v>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>3031.57894736842</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>167</v>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>3274.10526315789</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>168</v>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="F28" s="1" t="n">
         <v>1939</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>169</v>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1862.46052631579</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>170</v>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>2551.31578947368</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>171</v>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G30"/>
+  <autoFilter ref="A1:F30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6891,13 +6718,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6928,37 +6755,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>165.426751592357</v>
-      </c>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6967,13 +6791,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6983,13 +6807,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>246.216560509554</v>
+        <v>165.426751592357</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6998,13 +6822,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7014,13 +6838,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>330.853503184713</v>
+        <v>246.216560509554</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7029,13 +6853,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7045,13 +6869,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>384.713375796178</v>
+        <v>330.853503184713</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7060,13 +6884,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7076,13 +6900,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>496.28025477707</v>
+        <v>384.713375796178</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7091,13 +6915,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7107,13 +6931,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>550.140127388535</v>
+        <v>496.28025477707</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7122,13 +6946,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7138,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>604</v>
+        <v>550.140127388535</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7153,29 +6977,29 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>138.020979020979</v>
+        <v>604</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7184,13 +7008,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7200,13 +7024,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>205.426573426573</v>
+        <v>138.020979020979</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7215,13 +7039,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7231,13 +7055,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>276.041958041958</v>
+        <v>205.426573426573</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7246,13 +7070,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7262,13 +7086,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>320.979020979021</v>
+        <v>276.041958041958</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7277,13 +7101,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7293,13 +7117,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>414.062937062937</v>
+        <v>320.979020979021</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7308,13 +7132,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7324,13 +7148,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>459</v>
+        <v>414.062937062937</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7339,13 +7163,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7355,13 +7179,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>503.937062937063</v>
+        <v>459</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7370,29 +7194,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>74.39</v>
+        <v>503.937062937063</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7401,13 +7225,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7417,13 +7241,13 @@
         <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>110.72</v>
+        <v>74.39</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7432,13 +7256,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7448,13 +7272,13 @@
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>148.78</v>
+        <v>110.72</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7463,13 +7287,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7479,13 +7303,13 @@
         <v>19</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>173</v>
+        <v>148.78</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7494,13 +7318,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7510,13 +7334,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>223.17</v>
+        <v>173</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7525,13 +7349,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7541,13 +7365,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>247.39</v>
+        <v>223.17</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7556,13 +7380,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7572,13 +7396,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>271.61</v>
+        <v>247.39</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7587,29 +7411,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>40</v>
+        <v>271.61</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7618,13 +7442,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7634,13 +7458,13 @@
         <v>20</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>59.5348837209302</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7649,13 +7473,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7665,13 +7489,13 @@
         <v>20</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>80</v>
+        <v>59.5348837209302</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7680,13 +7504,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7696,13 +7520,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>93.0232558139535</v>
+        <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7711,13 +7535,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7727,13 +7551,13 @@
         <v>20</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>120</v>
+        <v>93.0232558139535</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7742,29 +7566,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7773,13 +7597,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7789,13 +7613,13 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>59.5348837209302</v>
+        <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7804,13 +7628,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7820,13 +7644,13 @@
         <v>21</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>80</v>
+        <v>59.5348837209302</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7835,13 +7659,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7851,652 +7675,59 @@
         <v>21</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>93.0232558139535</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>3824</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3673.05263157895</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5031.57894736842</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5434.1052631579</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5736</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>6390.1052631579</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>6490.73684210526</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>6692</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>3544.55555555556</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>3404.63888888889</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>4663.88888888889</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>5037</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>5316.83333333333</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>5923.13888888889</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>6016.41666666667</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>6202.97222222222</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>2520.92</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>2421.41</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>3317</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>3582.36</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>3781.38</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>4212.59</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>2304</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>2213.05263157895</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>3031.57894736842</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>3274.10526315789</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>1939</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1862.46052631579</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>2551.31578947368</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Inputs/Orange/addons.xlsx
+++ b/Inputs/Orange/addons.xlsx
@@ -5,25 +5,32 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Accommodation Type" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Scans &amp; Diagnostic Tests" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Out-patient Consultations" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Out-patient Medicines" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Dental" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Maternity (Consultations, Scans" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Optical Benefits" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Out-patient Specialists" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Out-patient Medicines" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Dental" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Maternity (Consultations, Scans" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Optical Benefits" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Maternity Waiting Period" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Complications of Pregnancy" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="New Born Cover" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Maternity-Addon" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Accommodation Type'!$A$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$31</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$32</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$E$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Consultations'!$A$1:$G$8</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Scans &amp; Diagnostic Tests'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="193">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -64,7 +71,7 @@
     <t xml:space="preserve">percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 2,50,000</t>
+    <t xml:space="preserve">AED 250,000</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Elite</t>
@@ -73,22 +80,22 @@
     <t xml:space="preserve">inside options arr</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 3,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 5,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 10,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 15,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 20,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 25,00,000</t>
+    <t xml:space="preserve">AED 300,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,500,000</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Diamond</t>
@@ -478,7 +485,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Nil </t>
+      <t xml:space="preserve">Nil</t>
     </r>
     <r>
       <rPr>
@@ -488,7 +495,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
+      <t xml:space="preserve"> (Pharmacy Copay)</t>
     </r>
   </si>
   <si>
@@ -527,7 +534,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+    <t xml:space="preserve">5% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
@@ -565,7 +572,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+    <t xml:space="preserve">10% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">15%</t>
@@ -603,7 +610,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+    <t xml:space="preserve">15% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">20%</t>
@@ -641,7 +648,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+    <t xml:space="preserve">20% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">25%</t>
@@ -679,7 +686,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+    <t xml:space="preserve">25% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">30%</t>
@@ -717,12 +724,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">30% (Pharmacy Copay)</t>
+    <t xml:space="preserve">30% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">Nil (Pharmacy Co-pay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 2,000 with Nil co-pay</t>
   </si>
   <si>
@@ -744,7 +754,7 @@
     <t xml:space="preserve">Covered up to AED 15,000 with Nil co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 20,000 with Nil co-pay</t>
+    <t xml:space="preserve">Covered up to AED 20,000 with 5% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with 5% co-pay</t>
@@ -771,9 +781,6 @@
     <t xml:space="preserve">Covered up to AED 15,000 with 5% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 20,000 with 5% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 1,500 with 10% co-pay</t>
   </si>
   <si>
@@ -939,33 +946,144 @@
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional-fixed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maternity Addon</t>
   </si>
   <si>
     <t xml:space="preserve">OP- Covered in full IP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
   </si>
   <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity-Addon</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 7,500 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 15,000 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 20,00 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 25,000 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 30,000 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 40,000 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 50,000 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optical Addon</t>
   </si>
   <si>
@@ -976,6 +1094,15 @@
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 750 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 30 days</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1115,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1018,6 +1145,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1028,15 +1162,22 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1082,7 +1223,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1103,6 +1244,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1119,15 +1264,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,7 +1317,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1156,7 +1333,74 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF972F"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1184,6 +1428,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1192,10 +1444,10 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1229,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -1246,8 +1498,8 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>-9.17347865576749</v>
+      <c r="F2" s="5" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1257,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -1274,8 +1526,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>-7.53860127157129</v>
+      <c r="F3" s="5" t="n">
+        <v>-7.54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -1285,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1554,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>-5.99455040871936</v>
+      <c r="F4" s="5" t="n">
+        <v>-5.99</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -1313,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
@@ -1330,8 +1582,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>-4.63215258855584</v>
+      <c r="F5" s="5" t="n">
+        <v>-4.63</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1341,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1610,7 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1369,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
@@ -1386,8 +1638,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1.81653042688466</v>
+      <c r="F7" s="5" t="n">
+        <v>1.82</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -1397,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1414,8 +1666,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>3.63306085376931</v>
+      <c r="F8" s="5" t="n">
+        <v>3.63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1425,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
@@ -1442,8 +1694,8 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>-4.76190476190476</v>
+      <c r="F9" s="5" t="n">
+        <v>-4.76</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -1453,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
@@ -1470,8 +1722,8 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>-3.04761904761905</v>
+      <c r="F10" s="5" t="n">
+        <v>-3.05</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -1481,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
@@ -1498,8 +1750,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>-1.42857142857143</v>
+      <c r="F11" s="5" t="n">
+        <v>-1.43</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -1509,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1778,7 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1537,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
@@ -1554,8 +1806,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>4.85714285714285</v>
+      <c r="F13" s="5" t="n">
+        <v>4.86</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -1565,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
@@ -1582,8 +1834,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>6.76190476190475</v>
+      <c r="F14" s="5" t="n">
+        <v>6.76000000000001</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -1607,11 +1859,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-3.38164251207728</v>
+        <v>-3.38000000000001</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1635,11 +1887,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-1.64251207729468</v>
+        <v>-1.64</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -1663,7 +1915,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1691,11 +1943,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.44927536231885</v>
+        <v>1.45</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -1719,7 +1971,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -1747,7 +1999,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -1775,7 +2027,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1803,7 +2055,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1831,7 +2083,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1858,6 +2110,1169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3797</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3647</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>4996</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>5395</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5695</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6344</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>6444</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>6644</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>3381</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>4631</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>5002</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>5280</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>5882</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>5974</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>6160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2503</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>3294</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>3557</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>3755</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>4183</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>3251</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1866,10 +3281,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.27"/>
@@ -1909,10 +3324,10 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="n">
@@ -1937,10 +3352,10 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -1965,10 +3380,10 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -1993,10 +3408,10 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -2021,10 +3436,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -2049,10 +3464,10 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -2077,10 +3492,10 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -2105,10 +3520,10 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
@@ -2133,10 +3548,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -2161,10 +3576,10 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="n">
@@ -2189,10 +3604,10 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="n">
@@ -2217,10 +3632,10 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="n">
@@ -2245,10 +3660,10 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="n">
@@ -2273,10 +3688,10 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4" t="n">
@@ -2301,10 +3716,10 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="4" t="n">
@@ -2346,10 +3761,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2376,7 +3791,7 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2409,7 +3824,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2434,7 +3849,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2459,7 +3874,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2484,7 +3899,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2503,6 +3918,409 @@
       <c r="G6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G6"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.49999999999999</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.970000000000004</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G8"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2516,235 +4334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.49999999999999</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.970000000000004</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2752,10 +4342,10 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
@@ -2820,7 +4410,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2833,7 +4423,7 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2848,7 +4438,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2861,7 +4451,7 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2876,7 +4466,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2889,7 +4479,7 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2904,7 +4494,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2917,7 +4507,7 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2932,7 +4522,7 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2945,7 +4535,7 @@
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2960,7 +4550,7 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2973,7 +4563,7 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2999,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-2.49999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -3020,7 +4610,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3030,7 +4620,7 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -3048,7 +4638,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3058,7 +4648,7 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -3076,7 +4666,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3086,7 +4676,7 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -3104,7 +4694,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3114,7 +4704,7 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -3132,7 +4722,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3142,7 +4732,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -3160,7 +4750,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3170,7 +4760,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -3188,7 +4778,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3198,7 +4788,7 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -3212,21 +4802,21 @@
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="10" t="n">
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -3240,20 +4830,20 @@
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3268,11 +4858,11 @@
       <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3281,7 +4871,7 @@
       <c r="E19" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3296,11 +4886,11 @@
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3309,7 +4899,7 @@
       <c r="E20" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3324,11 +4914,11 @@
       <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3337,7 +4927,7 @@
       <c r="E21" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3352,11 +4942,11 @@
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3365,7 +4955,7 @@
       <c r="E22" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3380,11 +4970,11 @@
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3393,7 +4983,7 @@
       <c r="E23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3408,11 +4998,11 @@
       <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3421,7 +5011,7 @@
       <c r="E24" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3436,11 +5026,11 @@
       <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3449,7 +5039,7 @@
       <c r="E25" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3464,11 +5054,11 @@
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3477,7 +5067,7 @@
       <c r="E26" s="0" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3492,7 +5082,7 @@
       <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3503,9 +5093,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3520,7 +5110,7 @@
       <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3533,7 +5123,7 @@
       <c r="E28" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3548,7 +5138,7 @@
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3561,7 +5151,7 @@
       <c r="E29" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3576,7 +5166,7 @@
       <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3589,7 +5179,7 @@
       <c r="E30" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3604,7 +5194,7 @@
       <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3617,7 +5207,7 @@
       <c r="E31" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3632,7 +5222,7 @@
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3645,7 +5235,7 @@
       <c r="E32" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3660,7 +5250,7 @@
       <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3673,7 +5263,7 @@
       <c r="E33" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3688,7 +5278,7 @@
       <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3701,7 +5291,7 @@
       <c r="E34" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3712,11 +5302,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3726,10 +5316,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3744,7 +5334,7 @@
       <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3755,9 +5345,9 @@
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F36" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3772,7 +5362,7 @@
       <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3785,7 +5375,7 @@
       <c r="E37" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3800,7 +5390,7 @@
       <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3813,7 +5403,7 @@
       <c r="E38" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3828,7 +5418,7 @@
       <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3841,7 +5431,7 @@
       <c r="E39" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3856,7 +5446,7 @@
       <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3869,7 +5459,7 @@
       <c r="E40" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3884,7 +5474,7 @@
       <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3897,7 +5487,7 @@
       <c r="E41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3912,7 +5502,7 @@
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3925,7 +5515,7 @@
       <c r="E42" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3940,7 +5530,7 @@
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3953,7 +5543,7 @@
       <c r="E43" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -3964,11 +5554,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3978,10 +5568,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -3996,7 +5586,7 @@
       <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -4007,9 +5597,9 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -4024,7 +5614,7 @@
       <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -4037,7 +5627,7 @@
       <c r="E46" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -4052,7 +5642,7 @@
       <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -4065,7 +5655,7 @@
       <c r="E47" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -4080,7 +5670,7 @@
       <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -4093,7 +5683,7 @@
       <c r="E48" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -4108,7 +5698,7 @@
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -4121,7 +5711,7 @@
       <c r="E49" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -4136,7 +5726,7 @@
       <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4149,7 +5739,7 @@
       <c r="E50" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -4164,7 +5754,7 @@
       <c r="A51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -4177,7 +5767,7 @@
       <c r="E51" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -4192,7 +5782,7 @@
       <c r="A52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -4205,7 +5795,7 @@
       <c r="E52" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -4216,11 +5806,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -4230,10 +5820,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -4248,7 +5838,7 @@
       <c r="A54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -4259,9 +5849,9 @@
         <v>1</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F54" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -4276,7 +5866,7 @@
       <c r="A55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -4289,7 +5879,7 @@
       <c r="E55" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -4304,7 +5894,7 @@
       <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4317,7 +5907,7 @@
       <c r="E56" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -4332,7 +5922,7 @@
       <c r="A57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4345,7 +5935,7 @@
       <c r="E57" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4360,7 +5950,7 @@
       <c r="A58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4373,7 +5963,7 @@
       <c r="E58" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -4388,7 +5978,7 @@
       <c r="A59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4401,7 +5991,7 @@
       <c r="E59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -4416,7 +6006,7 @@
       <c r="A60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4429,7 +6019,7 @@
       <c r="E60" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -4444,7 +6034,7 @@
       <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4457,7 +6047,7 @@
       <c r="E61" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -4468,11 +6058,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -4482,10 +6072,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -4500,7 +6090,7 @@
       <c r="A63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -4511,9 +6101,9 @@
         <v>1</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F63" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -4528,7 +6118,7 @@
       <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4541,7 +6131,7 @@
       <c r="E64" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -4556,7 +6146,7 @@
       <c r="A65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -4569,7 +6159,7 @@
       <c r="E65" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G65" s="2" t="s">
@@ -4584,7 +6174,7 @@
       <c r="A66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4597,7 +6187,7 @@
       <c r="E66" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -4612,7 +6202,7 @@
       <c r="A67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -4625,7 +6215,7 @@
       <c r="E67" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -4640,7 +6230,7 @@
       <c r="A68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4653,7 +6243,7 @@
       <c r="E68" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -4668,7 +6258,7 @@
       <c r="A69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4681,7 +6271,7 @@
       <c r="E69" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -4696,7 +6286,7 @@
       <c r="A70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4709,7 +6299,7 @@
       <c r="E70" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4720,11 +6310,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4734,10 +6324,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -4750,995 +6340,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H71"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>605.439306358382</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>665.317919075145</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>844.953757225434</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>904.832369942197</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>971.364161849711</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1151</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1270.75722543353</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1816.31791907514</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>401.397260273973</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>441.095890410959</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>560.191780821918</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>599.890410958904</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>644</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>763.095890410959</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>842.493150684932</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>214.96062992126</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>236.220472440945</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>321.259842519685</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>344.881889763779</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>408.661417322835</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>171.428571428571</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>217.714285714286</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>233.142857142857</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>250.285714285714</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>171.428571428571</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>217.714285714286</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5755,21 +6356,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,26 +6400,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>3824</v>
-      </c>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
@@ -5836,11 +6433,11 @@
       <c r="A3" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>140</v>
+      <c r="B3" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5849,8 +6446,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>3673.05263157895</v>
+      <c r="F3" s="2" t="n">
+        <v>601</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -5867,11 +6464,11 @@
       <c r="A4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>140</v>
+      <c r="B4" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5880,8 +6477,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>5031.57894736842</v>
+      <c r="F4" s="2" t="n">
+        <v>661</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -5898,11 +6495,11 @@
       <c r="A5" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>140</v>
+      <c r="B5" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5911,8 +6508,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>5434.1052631579</v>
+      <c r="F5" s="2" t="n">
+        <v>839</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -5929,11 +6526,11 @@
       <c r="A6" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>140</v>
+      <c r="B6" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5942,8 +6539,8 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>5736</v>
+      <c r="F6" s="2" t="n">
+        <v>899</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -5960,11 +6557,11 @@
       <c r="A7" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>140</v>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5973,8 +6570,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>6390.1052631579</v>
+      <c r="F7" s="2" t="n">
+        <v>965</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -5991,11 +6588,11 @@
       <c r="A8" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>140</v>
+      <c r="B8" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6004,8 +6601,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>6490.73684210526</v>
+      <c r="F8" s="2" t="n">
+        <v>1143</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -6022,11 +6619,11 @@
       <c r="A9" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>140</v>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6035,8 +6632,8 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>6692</v>
+      <c r="F9" s="2" t="n">
+        <v>1262</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -6053,21 +6650,21 @@
       <c r="A10" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>141</v>
+      <c r="B10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>3544.55555555556</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1804</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -6084,11 +6681,11 @@
       <c r="A11" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>140</v>
+      <c r="B11" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6097,8 +6694,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>3404.63888888889</v>
+      <c r="F11" s="2" t="n">
+        <v>399</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -6115,11 +6712,11 @@
       <c r="A12" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>140</v>
+      <c r="B12" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6128,8 +6725,8 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>4663.88888888889</v>
+      <c r="F12" s="2" t="n">
+        <v>438</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -6146,11 +6743,11 @@
       <c r="A13" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>140</v>
+      <c r="B13" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6159,8 +6756,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>5037</v>
+      <c r="F13" s="2" t="n">
+        <v>556</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -6177,11 +6774,11 @@
       <c r="A14" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>140</v>
+      <c r="B14" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6190,8 +6787,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>5316.83333333333</v>
+      <c r="F14" s="2" t="n">
+        <v>596</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -6208,11 +6805,11 @@
       <c r="A15" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>140</v>
+      <c r="B15" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6221,8 +6818,8 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>5923.13888888889</v>
+      <c r="F15" s="2" t="n">
+        <v>640</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -6239,11 +6836,11 @@
       <c r="A16" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>140</v>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6252,8 +6849,8 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>6016.41666666667</v>
+      <c r="F16" s="2" t="n">
+        <v>758</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -6270,11 +6867,11 @@
       <c r="A17" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>140</v>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6283,8 +6880,8 @@
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>6202.97222222222</v>
+      <c r="F17" s="2" t="n">
+        <v>837</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -6301,11 +6898,11 @@
       <c r="A18" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>141</v>
+      <c r="B18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6314,8 +6911,8 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>2520.92</v>
+      <c r="F18" s="2" t="n">
+        <v>213</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -6332,11 +6929,11 @@
       <c r="A19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>140</v>
+      <c r="B19" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6345,8 +6942,8 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>2421.41</v>
+      <c r="F19" s="2" t="n">
+        <v>235</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -6363,11 +6960,11 @@
       <c r="A20" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>140</v>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6376,8 +6973,8 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>3317</v>
+      <c r="F20" s="2" t="n">
+        <v>298</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -6394,11 +6991,11 @@
       <c r="A21" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>140</v>
+      <c r="B21" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6407,8 +7004,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>3582.36</v>
+      <c r="F21" s="2" t="n">
+        <v>319</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -6425,11 +7022,11 @@
       <c r="A22" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>140</v>
+      <c r="B22" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6438,8 +7035,8 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>3781.38</v>
+      <c r="F22" s="2" t="n">
+        <v>342</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -6456,11 +7053,11 @@
       <c r="A23" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>140</v>
+      <c r="B23" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6469,8 +7066,8 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>4212.59</v>
+      <c r="F23" s="2" t="n">
+        <v>406</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -6487,11 +7084,11 @@
       <c r="A24" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>141</v>
+      <c r="B24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6500,8 +7097,8 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>2304</v>
+      <c r="F24" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -6518,11 +7115,11 @@
       <c r="A25" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>140</v>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6531,8 +7128,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>2213.05263157895</v>
+      <c r="F25" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -6549,11 +7146,11 @@
       <c r="A26" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>140</v>
+      <c r="B26" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6562,8 +7159,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>3031.57894736842</v>
+      <c r="F26" s="2" t="n">
+        <v>216</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -6580,11 +7177,11 @@
       <c r="A27" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>140</v>
+      <c r="B27" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6593,8 +7190,8 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>3274.10526315789</v>
+      <c r="F27" s="2" t="n">
+        <v>231</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -6611,21 +7208,21 @@
       <c r="A28" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>141</v>
+      <c r="B28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>1939</v>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>248</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -6642,11 +7239,11 @@
       <c r="A29" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>140</v>
+      <c r="B29" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6655,8 +7252,8 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>1862.46052631579</v>
+      <c r="F29" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -6673,11 +7270,11 @@
       <c r="A30" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>140</v>
+      <c r="B30" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6686,8 +7283,8 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>2551.31578947368</v>
+      <c r="F30" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -6700,8 +7297,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="A1:F28"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6718,13 +7346,1251 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AMJ2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AMJ10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AMJ18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AMJ24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AMJ28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E30"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6771,10 +8637,11 @@
       <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F2" s="1"/>
@@ -6794,10 +8661,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6806,8 +8673,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>165.426751592357</v>
+      <c r="F3" s="2" t="n">
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -6825,10 +8692,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6837,8 +8704,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>246.216560509554</v>
+      <c r="F4" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -6856,10 +8723,10 @@
         <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6868,8 +8735,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>330.853503184713</v>
+      <c r="F5" s="2" t="n">
+        <v>329</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -6887,7 +8754,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>138</v>
@@ -6899,8 +8766,8 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>384.713375796178</v>
+      <c r="F6" s="2" t="n">
+        <v>382</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -6918,7 +8785,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>103</v>
@@ -6930,8 +8797,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>496.28025477707</v>
+      <c r="F7" s="2" t="n">
+        <v>493</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -6949,7 +8816,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>104</v>
@@ -6961,8 +8828,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>550.140127388535</v>
+      <c r="F8" s="2" t="n">
+        <v>546</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -6980,7 +8847,7 @@
         <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>105</v>
@@ -6992,8 +8859,8 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>604</v>
+      <c r="F9" s="2" t="n">
+        <v>600</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -7011,10 +8878,10 @@
         <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7023,8 +8890,8 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>138.020979020979</v>
+      <c r="F10" s="2" t="n">
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -7042,10 +8909,10 @@
         <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7054,8 +8921,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>205.426573426573</v>
+      <c r="F11" s="2" t="n">
+        <v>204</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -7073,10 +8940,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7085,8 +8952,8 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>276.041958041958</v>
+      <c r="F12" s="2" t="n">
+        <v>274</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -7104,7 +8971,7 @@
         <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>138</v>
@@ -7116,8 +8983,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>320.979020979021</v>
+      <c r="F13" s="2" t="n">
+        <v>318</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -7135,7 +9002,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>103</v>
@@ -7147,8 +9014,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>414.062937062937</v>
+      <c r="F14" s="2" t="n">
+        <v>411</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -7166,7 +9033,7 @@
         <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>104</v>
@@ -7178,8 +9045,8 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>459</v>
+      <c r="F15" s="2" t="n">
+        <v>455</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -7197,7 +9064,7 @@
         <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>105</v>
@@ -7209,8 +9076,8 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>503.937062937063</v>
+      <c r="F16" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -7228,10 +9095,10 @@
         <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7240,8 +9107,8 @@
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>74.39</v>
+      <c r="F17" s="2" t="n">
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -7259,10 +9126,10 @@
         <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7271,8 +9138,8 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>110.72</v>
+      <c r="F18" s="2" t="n">
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -7290,10 +9157,10 @@
         <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7302,8 +9169,8 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>148.78</v>
+      <c r="F19" s="2" t="n">
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -7321,7 +9188,7 @@
         <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>138</v>
@@ -7333,8 +9200,8 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>173</v>
+      <c r="F20" s="2" t="n">
+        <v>172</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -7352,7 +9219,7 @@
         <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>103</v>
@@ -7364,8 +9231,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>223.17</v>
+      <c r="F21" s="2" t="n">
+        <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -7383,7 +9250,7 @@
         <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>104</v>
@@ -7395,8 +9262,8 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>247.39</v>
+      <c r="F22" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -7414,7 +9281,7 @@
         <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>105</v>
@@ -7426,8 +9293,8 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>271.61</v>
+      <c r="F23" s="2" t="n">
+        <v>269</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -7445,10 +9312,10 @@
         <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7457,7 +9324,7 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="2" t="n">
         <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -7476,10 +9343,10 @@
         <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7488,8 +9355,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>59.5348837209302</v>
+      <c r="F25" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -7507,10 +9374,10 @@
         <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7519,8 +9386,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>80</v>
+      <c r="F26" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -7538,7 +9405,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>138</v>
@@ -7550,8 +9417,8 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>93.0232558139535</v>
+      <c r="F27" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -7569,7 +9436,7 @@
         <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>103</v>
@@ -7581,8 +9448,8 @@
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>120</v>
+      <c r="F28" s="2" t="n">
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -7600,10 +9467,10 @@
         <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7612,7 +9479,7 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="2" t="n">
         <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -7631,10 +9498,10 @@
         <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7643,8 +9510,8 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>59.5348837209302</v>
+      <c r="F30" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -7662,10 +9529,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7674,8 +9541,8 @@
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>80</v>
+      <c r="F31" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -7693,7 +9560,7 @@
         <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>138</v>
@@ -7705,8 +9572,8 @@
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>93.0232558139535</v>
+      <c r="F32" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -7719,8 +9586,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F32"/>
+  <autoFilter ref="A1:F30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Inputs/Orange/addons.xlsx
+++ b/Inputs/Orange/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="171">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -77,85 +77,34 @@
     <t xml:space="preserve">Regional Plus- Elite</t>
   </si>
   <si>
-    <t xml:space="preserve">-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">inside options arr</t>
   </si>
   <si>
     <t xml:space="preserve">AED 250,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 300,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 1,500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 2,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 2,500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Silver</t>
@@ -1016,13 +965,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1073,15 +1022,18 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="F2" s="5" t="n">
+        <v>-10.99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-10.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1101,15 +1053,18 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
+      <c r="F3" s="5" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>-9.17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,10 +1072,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1129,15 +1084,18 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
+      <c r="F4" s="5" t="n">
+        <v>-7.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>-7.54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,10 +1103,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1157,15 +1115,18 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
+      <c r="F5" s="5" t="n">
+        <v>-5.99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-5.99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,10 +1134,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1185,15 +1146,18 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
+      <c r="F6" s="5" t="n">
+        <v>-4.63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>-4.63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1213,15 +1177,18 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,10 +1196,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1241,15 +1208,18 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
+      <c r="F8" s="5" t="n">
+        <v>1.82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,10 +1227,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1269,15 +1239,18 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
+      <c r="F9" s="5" t="n">
+        <v>3.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,17 +1268,20 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.67</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>-6.67</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,27 +1289,30 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.76</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,27 +1320,30 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-3.05</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>-3.05</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,27 +1351,30 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.43</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>-1.43</v>
       </c>
     </row>
     <row r="14" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,27 +1382,30 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,27 +1413,30 @@
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.86</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>4.86</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,27 +1444,30 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6.76</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,27 +1475,30 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>8.67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8.67</v>
       </c>
     </row>
     <row r="18" s="16" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,17 +1516,20 @@
         <v>1</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F18" s="5" t="n">
+        <v>-5.31</v>
+      </c>
       <c r="G18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <v>-5.31</v>
       </c>
     </row>
     <row r="19" s="16" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,27 +1537,30 @@
         <v>8</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-3.38</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <v>-3.38</v>
       </c>
     </row>
     <row r="20" s="16" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,27 +1568,30 @@
         <v>8</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.64</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I20" s="16" t="n">
+        <v>-1.64</v>
       </c>
     </row>
     <row r="21" s="16" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,27 +1599,30 @@
         <v>8</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I21" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" s="16" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,27 +1630,30 @@
         <v>8</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.45</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I22" s="16" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,27 +1661,30 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>6.38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,17 +1702,20 @@
         <v>1</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,27 +1723,30 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,27 +1754,30 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>1.8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,27 +1785,30 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>3.5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,30 +1816,33 @@
         <v>8</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
@@ -1827,101 +1857,113 @@
         <v>1</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>-2</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="D31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>24</v>
+      <c r="F31" s="5" t="n">
+        <v>1.8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>3.5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -1942,11 +1984,11 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.82"/>
@@ -1966,36 +2008,36 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,11 +2198,11 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.68"/>
   </cols>
@@ -2179,30 +2221,30 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,11 +2405,11 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.09"/>
@@ -2387,30 +2429,30 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,27 +2613,27 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" s="35" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,16 +2641,16 @@
         <v>2944</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>10</v>
@@ -2626,16 +2668,16 @@
         <v>2828</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -2653,16 +2695,16 @@
         <v>3874</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -2680,16 +2722,16 @@
         <v>4184</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -2707,16 +2749,16 @@
         <v>4416</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -2734,16 +2776,16 @@
         <v>4920</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -2761,16 +2803,16 @@
         <v>4997</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -2788,16 +2830,16 @@
         <v>5152</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -2815,19 +2857,19 @@
         <v>2730</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="G10" s="33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">(A10+((A10*33.33)/100))</f>
@@ -2842,19 +2884,19 @@
         <v>2622</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">(A11+((A11*33.33)/100))</f>
@@ -2869,19 +2911,19 @@
         <v>3592</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">(A12+((A12*33.33)/100))</f>
@@ -2896,19 +2938,19 @@
         <v>3879</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">(A13+((A13*33.33)/100))</f>
@@ -2923,19 +2965,19 @@
         <v>4095</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">(A14+((A14*33.33)/100))</f>
@@ -2950,19 +2992,19 @@
         <v>4561</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">(A15+((A15*33.33)/100))</f>
@@ -2977,19 +3019,19 @@
         <v>4633</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">(A16+((A16*33.33)/100))</f>
@@ -3004,19 +3046,19 @@
         <v>4777</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">(A17+((A17*33.33)/100))</f>
@@ -3031,19 +3073,19 @@
         <v>1941</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">(A18+((A18*33.33)/100))</f>
@@ -3058,19 +3100,19 @@
         <v>1864</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">(A19+((A19*33.33)/100))</f>
@@ -3085,19 +3127,19 @@
         <v>2554</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">(A20+((A20*33.33)/100))</f>
@@ -3112,19 +3154,19 @@
         <v>2758</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">(A21+((A21*33.33)/100))</f>
@@ -3139,19 +3181,19 @@
         <v>2912</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">(A22+((A22*33.33)/100))</f>
@@ -3166,19 +3208,19 @@
         <v>3244</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">(A23+((A23*33.33)/100))</f>
@@ -3193,19 +3235,19 @@
         <v>1704</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">(A24+((A24*33.33)/100))</f>
@@ -3220,19 +3262,19 @@
         <v>1704</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">(A25+((A25*33.33)/100))</f>
@@ -3247,19 +3289,19 @@
         <v>2334</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">(A26+((A26*33.33)/100))</f>
@@ -3274,19 +3316,19 @@
         <v>2521</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">(A27+((A27*33.33)/100))</f>
@@ -3301,19 +3343,19 @@
         <v>1493</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">(A28+((A28*33.33)/100))</f>
@@ -3328,19 +3370,19 @@
         <v>1493</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J29" s="0" t="n">
         <f aca="false">(A29+((A29*33.33)/100))</f>
@@ -3355,19 +3397,19 @@
         <v>1964</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">(A30+((A30*33.33)/100))</f>
@@ -3499,11 +3541,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.27"/>
@@ -3544,10 +3586,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3560,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3572,10 +3614,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3588,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3600,10 +3642,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3616,7 +3658,7 @@
         <v>-5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3628,23 +3670,23 @@
         <v>8</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3656,23 +3698,23 @@
         <v>8</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3684,23 +3726,23 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3712,23 +3754,23 @@
         <v>8</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3740,23 +3782,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3768,23 +3810,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>-7.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3796,23 +3838,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5.3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3824,23 +3866,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3852,23 +3894,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>-2.6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3880,23 +3922,23 @@
         <v>8</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3908,23 +3950,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3936,23 +3978,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3977,11 +4019,11 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -4017,10 +4059,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4030,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4042,10 +4084,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4055,7 +4097,7 @@
         <v>-2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4067,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4080,7 +4122,7 @@
         <v>-4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4092,10 +4134,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4105,7 +4147,7 @@
         <v>-6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4117,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4130,7 +4172,7 @@
         <v>-8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4142,10 +4184,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4155,7 +4197,7 @@
         <v>-0.54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4167,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4180,7 +4222,7 @@
         <v>-1.12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4192,10 +4234,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4205,7 +4247,7 @@
         <v>-1.43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4217,10 +4259,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4230,7 +4272,7 @@
         <v>-1.47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4311,11 +4353,11 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -4351,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4364,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4376,10 +4418,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4389,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4404,10 +4446,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4417,7 +4459,7 @@
         <v>2.8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4432,10 +4474,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4445,7 +4487,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4460,10 +4502,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4473,7 +4515,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4488,10 +4530,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4501,7 +4543,7 @@
         <v>-1.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4516,10 +4558,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4529,7 +4571,7 @@
         <v>-1.75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4544,10 +4586,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4557,7 +4599,7 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4572,10 +4614,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4585,7 +4627,7 @@
         <v>1.75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4600,10 +4642,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4613,7 +4655,7 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4628,10 +4670,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4641,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4656,10 +4698,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4669,7 +4711,7 @@
         <v>-1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4684,10 +4726,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4697,7 +4739,7 @@
         <v>-1.45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4712,10 +4754,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4725,7 +4767,7 @@
         <v>-1.78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4828,11 +4870,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.62"/>
@@ -4858,17 +4900,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4877,17 +4919,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4896,17 +4938,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4915,17 +4957,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4934,17 +4976,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4953,17 +4995,17 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4972,17 +5014,17 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4991,17 +5033,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5010,17 +5052,17 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5029,17 +5071,17 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5048,17 +5090,17 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5067,17 +5109,17 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5086,17 +5128,17 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5105,17 +5147,17 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5182,11 +5224,11 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
@@ -5210,7 +5252,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -5224,10 +5266,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5237,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5252,10 +5294,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5265,10 +5307,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5280,10 +5322,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5293,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5308,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5321,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5336,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5349,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5364,10 +5406,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5377,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5392,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5405,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5420,10 +5462,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5433,10 +5475,10 @@
         <v>-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5448,10 +5490,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5461,10 +5503,10 @@
         <v>-1.75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5476,10 +5518,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5489,10 +5531,10 @@
         <v>-1.5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5504,10 +5546,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5517,10 +5559,10 @@
         <v>-1.25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5532,10 +5574,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5545,10 +5587,10 @@
         <v>-1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5560,10 +5602,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5573,10 +5615,10 @@
         <v>-0.75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5588,10 +5630,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5601,10 +5643,10 @@
         <v>-0.5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5616,10 +5658,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5629,10 +5671,10 @@
         <v>-2</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5644,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5657,10 +5699,10 @@
         <v>-1.75</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5672,10 +5714,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5685,10 +5727,10 @@
         <v>-1.5</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5700,10 +5742,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5713,10 +5755,10 @@
         <v>-1.25</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5728,10 +5770,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5741,10 +5783,10 @@
         <v>-1</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5756,10 +5798,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5769,10 +5811,10 @@
         <v>-0.75</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5784,10 +5826,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5797,10 +5839,10 @@
         <v>-0.5</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5812,10 +5854,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5825,10 +5867,10 @@
         <v>-2</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5840,10 +5882,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5853,10 +5895,10 @@
         <v>-1.75</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5868,10 +5910,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5881,10 +5923,10 @@
         <v>-1.5</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5896,10 +5938,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5909,10 +5951,10 @@
         <v>-1.25</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5924,10 +5966,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5937,10 +5979,10 @@
         <v>-1</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5952,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5965,10 +6007,10 @@
         <v>-0.75</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5980,10 +6022,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5993,10 +6035,10 @@
         <v>-0.5</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6008,10 +6050,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6021,10 +6063,10 @@
         <v>-2</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6036,10 +6078,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6049,10 +6091,10 @@
         <v>-1.75</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6064,10 +6106,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6077,10 +6119,10 @@
         <v>-1.5</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6092,10 +6134,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6105,10 +6147,10 @@
         <v>-1.25</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6120,10 +6162,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6133,10 +6175,10 @@
         <v>-1</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6148,10 +6190,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6161,10 +6203,10 @@
         <v>-0.75</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6176,10 +6218,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6189,10 +6231,10 @@
         <v>-0.5</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6204,10 +6246,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6217,10 +6259,10 @@
         <v>-2</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6232,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6245,10 +6287,10 @@
         <v>-1.75</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6260,10 +6302,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6273,10 +6315,10 @@
         <v>-1.5</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6288,10 +6330,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6301,10 +6343,10 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6316,10 +6358,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6329,10 +6371,10 @@
         <v>-1</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6344,10 +6386,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6357,10 +6399,10 @@
         <v>-0.75</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6372,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6385,10 +6427,10 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6400,10 +6442,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6413,10 +6455,10 @@
         <v>-2</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6428,10 +6470,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6441,10 +6483,10 @@
         <v>-1.75</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6456,10 +6498,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6469,10 +6511,10 @@
         <v>-1.5</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6484,10 +6526,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6497,10 +6539,10 @@
         <v>-1.25</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6512,10 +6554,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6525,10 +6567,10 @@
         <v>-1</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6540,10 +6582,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6553,10 +6595,10 @@
         <v>-0.75</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6568,10 +6610,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6581,10 +6623,10 @@
         <v>-0.5</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6596,10 +6638,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6609,10 +6651,10 @@
         <v>-2</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6624,10 +6666,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6637,10 +6679,10 @@
         <v>-1.75</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6652,10 +6694,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6665,10 +6707,10 @@
         <v>-1.5</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6680,10 +6722,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6693,10 +6735,10 @@
         <v>-1.25</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6708,10 +6750,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6721,10 +6763,10 @@
         <v>-1</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6736,10 +6778,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6749,10 +6791,10 @@
         <v>-0.75</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6764,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6777,10 +6819,10 @@
         <v>-0.5</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6792,10 +6834,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6805,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6820,10 +6862,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6833,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6848,10 +6890,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6861,10 +6903,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6876,10 +6918,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6889,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6904,10 +6946,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6917,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6932,11 +6974,11 @@
         <v>8</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -6945,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -6960,10 +7002,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6973,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -7001,11 +7043,11 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
@@ -7037,7 +7079,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -7045,27 +7087,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D2" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7074,13 +7116,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7093,10 +7135,10 @@
         <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7112,13 +7154,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7131,10 +7173,10 @@
         <v>467</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7150,13 +7192,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7169,10 +7211,10 @@
         <v>513</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7188,13 +7230,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7207,10 +7249,10 @@
         <v>651</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7226,13 +7268,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7245,10 +7287,10 @@
         <v>697</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7264,13 +7306,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7283,10 +7325,10 @@
         <v>749</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7302,13 +7344,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7321,10 +7363,10 @@
         <v>887</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7340,13 +7382,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7359,10 +7401,10 @@
         <v>979</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7378,13 +7420,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7397,10 +7439,10 @@
         <v>1400</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7416,29 +7458,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>218</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7454,29 +7496,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>309</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7492,29 +7534,29 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>340</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7530,29 +7572,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>431</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7568,29 +7610,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>462</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7606,29 +7648,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>496</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7644,29 +7686,29 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>588</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7682,29 +7724,29 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>649</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7720,29 +7762,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7758,29 +7800,29 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>166</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7796,29 +7838,29 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>182</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7834,29 +7876,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>231</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7872,29 +7914,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>247</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7910,29 +7952,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>266</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7948,29 +7990,29 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>315</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7986,29 +8028,29 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>85</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8024,29 +8066,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8062,29 +8104,29 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>132</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8100,29 +8142,29 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8138,29 +8180,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>179</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8176,29 +8218,29 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>193</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8214,29 +8256,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>85</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8252,29 +8294,29 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8290,29 +8332,29 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>132</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8328,29 +8370,29 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>167</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8382,11 +8424,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
@@ -8417,33 +8459,33 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D2" s="32" t="n">
         <f aca="false">TRUE()</f>
@@ -8453,38 +8495,38 @@
         <v>10</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H2" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AMJ2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8494,37 +8536,37 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8534,37 +8576,37 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8574,37 +8616,37 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8614,37 +8656,37 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8654,37 +8696,37 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8694,37 +8736,37 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8734,870 +8776,870 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>156</v>
-      </c>
       <c r="L9" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D10" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H10" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="L10" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AMJ10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D18" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H18" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AMJ18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D24" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H24" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AMJ24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D28" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H28" s="32" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AMJ28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9916,11 +9958,11 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -9951,7 +9993,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -9959,27 +10001,27 @@
     </row>
     <row r="2" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D2" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9988,13 +10030,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10007,10 +10049,10 @@
         <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10026,13 +10068,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10045,10 +10087,10 @@
         <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10064,13 +10106,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10083,10 +10125,10 @@
         <v>255</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10102,13 +10144,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10121,10 +10163,10 @@
         <v>296</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10140,13 +10182,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10159,10 +10201,10 @@
         <v>382</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10178,13 +10220,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10197,10 +10239,10 @@
         <v>424</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10216,13 +10258,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10235,10 +10277,10 @@
         <v>465</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10254,29 +10296,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10292,29 +10334,29 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>158</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10330,29 +10372,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>212</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10368,29 +10410,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>247</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10406,29 +10448,29 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>318</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10444,29 +10486,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>353</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10482,29 +10524,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>388</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10520,29 +10562,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10558,29 +10600,29 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10596,29 +10638,29 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10634,29 +10676,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>133</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10672,29 +10714,29 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10710,29 +10752,29 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>190</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10748,29 +10790,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>209</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10786,29 +10828,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10824,29 +10866,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>46</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10862,29 +10904,29 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>62</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10900,29 +10942,29 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10938,29 +10980,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10976,29 +11018,29 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -11014,29 +11056,29 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -11052,29 +11094,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>62</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -11090,29 +11132,29 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I32" s="4" t="n">
         <f aca="false">TRUE()</f>
